--- a/shorty_entries.xlsx
+++ b/shorty_entries.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krusv\shorty-asee-internship\shorty-asee-internship\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krusv\IdeaProjects\shorty-asee-internship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF0B2D42-A2A2-4EC7-B17B-99C15644FA78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABAB7B2D-9DB7-4ABB-B7FF-96B583F3F060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{9D5F798F-E7BA-43BE-819D-053AC85217D0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>www.google.com</t>
   </si>
@@ -48,6 +48,18 @@
   </si>
   <si>
     <t>87zhg56f</t>
+  </si>
+  <si>
+    <t>www.facebook.com</t>
+  </si>
+  <si>
+    <t>89zh67gr</t>
+  </si>
+  <si>
+    <t>https://www.tutorialspoint.com/commons_cli/commons_cli_quick_guide.htm</t>
+  </si>
+  <si>
+    <t>uh78fg45</t>
   </si>
 </sst>
 </file>
@@ -412,15 +424,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{728526D5-E1C5-45B1-B655-EF7C292284DF}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="72.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -445,10 +457,34 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" xr:uid="{6E64E131-FC7B-4BF4-A90C-44583E207385}"/>
     <hyperlink ref="B2" r:id="rId2" xr:uid="{533CE45A-CF57-42CC-A899-193650E522AF}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{6C7EE20C-11A4-49BB-B716-81D6CBE05FE5}"/>
+    <hyperlink ref="B4" r:id="rId4" xr:uid="{4713693C-9CA8-4A34-9072-2F5AE8A6205C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/shorty_entries.xlsx
+++ b/shorty_entries.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krusv\IdeaProjects\shorty-asee-internship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABAB7B2D-9DB7-4ABB-B7FF-96B583F3F060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CABA773-D607-415F-B9AF-7E1C2A71B13C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{9D5F798F-E7BA-43BE-819D-053AC85217D0}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,36 +36,61 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>www.google.com</t>
   </si>
   <si>
-    <t>www.youtube.com</t>
-  </si>
-  <si>
-    <t>6j678hjt</t>
-  </si>
-  <si>
-    <t>87zhg56f</t>
+    <t>89zh65gh</t>
+  </si>
+  <si>
+    <t>jhsaklčd</t>
+  </si>
+  <si>
+    <t>www.sakjdhk.ocm</t>
+  </si>
+  <si>
+    <t>woowowowowwo</t>
+  </si>
+  <si>
+    <t>arwqvkhcdm</t>
   </si>
   <si>
     <t>www.facebook.com</t>
   </si>
   <si>
-    <t>89zh67gr</t>
-  </si>
-  <si>
-    <t>https://www.tutorialspoint.com/commons_cli/commons_cli_quick_guide.htm</t>
-  </si>
-  <si>
-    <t>uh78fg45</t>
+    <t>advSTFJX</t>
+  </si>
+  <si>
+    <t>waisnda</t>
+  </si>
+  <si>
+    <t>6qlzkvn4</t>
+  </si>
+  <si>
+    <t>www.groms.ok</t>
+  </si>
+  <si>
+    <t>2lm28xfs</t>
+  </si>
+  <si>
+    <t>www.kokok.com</t>
+  </si>
+  <si>
+    <t>15pyp1ui</t>
+  </si>
+  <si>
+    <t>sodkosakdo</t>
+  </si>
+  <si>
+    <t>yo28ymr0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -424,67 +449,108 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{728526D5-E1C5-45B1-B655-EF7C292284DF}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="72.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="72.42578125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1">
+      <c r="A1" s="0">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="0">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s" s="0">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="3">
+      <c r="A3" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="4">
+      <c r="A4" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{6E64E131-FC7B-4BF4-A90C-44583E207385}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{533CE45A-CF57-42CC-A899-193650E522AF}"/>
-    <hyperlink ref="B3" r:id="rId3" xr:uid="{6C7EE20C-11A4-49BB-B716-81D6CBE05FE5}"/>
-    <hyperlink ref="B4" r:id="rId4" xr:uid="{4713693C-9CA8-4A34-9072-2F5AE8A6205C}"/>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{BC19D08D-5BF7-41EC-A4BB-ADB9228E43FE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/shorty_entries.xlsx
+++ b/shorty_entries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krusv\IdeaProjects\shorty-asee-internship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CABA773-D607-415F-B9AF-7E1C2A71B13C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6392CEB7-C671-48B8-80D5-23891DE1DC45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{9D5F798F-E7BA-43BE-819D-053AC85217D0}"/>
   </bookViews>
@@ -36,54 +36,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>popop</t>
+  </si>
+  <si>
+    <t>qo7hkril</t>
+  </si>
+  <si>
+    <t>sjda</t>
+  </si>
+  <si>
+    <t>yqpmuoms</t>
+  </si>
+  <si>
+    <t>sdha</t>
+  </si>
+  <si>
+    <t>k4kach1y</t>
+  </si>
   <si>
     <t>www.google.com</t>
   </si>
   <si>
-    <t>89zh65gh</t>
-  </si>
-  <si>
-    <t>jhsaklčd</t>
-  </si>
-  <si>
-    <t>www.sakjdhk.ocm</t>
-  </si>
-  <si>
-    <t>woowowowowwo</t>
-  </si>
-  <si>
-    <t>arwqvkhcdm</t>
-  </si>
-  <si>
-    <t>www.facebook.com</t>
-  </si>
-  <si>
-    <t>advSTFJX</t>
-  </si>
-  <si>
-    <t>waisnda</t>
-  </si>
-  <si>
-    <t>6qlzkvn4</t>
-  </si>
-  <si>
-    <t>www.groms.ok</t>
-  </si>
-  <si>
-    <t>2lm28xfs</t>
-  </si>
-  <si>
-    <t>www.kokok.com</t>
-  </si>
-  <si>
-    <t>15pyp1ui</t>
-  </si>
-  <si>
-    <t>sodkosakdo</t>
-  </si>
-  <si>
-    <t>yo28ymr0</t>
+    <t>yku4xfn6</t>
   </si>
 </sst>
 </file>
@@ -91,19 +67,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -127,16 +94,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hiperveza" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normalno" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -449,11 +413,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{728526D5-E1C5-45B1-B655-EF7C292284DF}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -461,97 +423,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="0">
-        <v>0</v>
+      <c r="A1" s="0" t="n">
+        <v>0.0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
+      <c r="B1" t="s" s="0">
+        <v>2</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="0">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="0">
         <v>3</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n" s="0">
-        <v>5.0</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n" s="0">
-        <v>6.0</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n" s="0">
-        <v>7.0</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{BC19D08D-5BF7-41EC-A4BB-ADB9228E43FE}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/shorty_entries.xlsx
+++ b/shorty_entries.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>www.youtube.com</t>
   </si>
@@ -24,6 +24,24 @@
   </si>
   <si>
     <t>xkq8vjqv</t>
+  </si>
+  <si>
+    <t>xy2id582</t>
+  </si>
+  <si>
+    <t>www.riteh.hr</t>
+  </si>
+  <si>
+    <t>fbklaopz</t>
+  </si>
+  <si>
+    <t>0v2ffdc7</t>
+  </si>
+  <si>
+    <t>www.kkso.com</t>
+  </si>
+  <si>
+    <t>ayz51beq</t>
   </si>
 </sst>
 </file>
@@ -68,7 +86,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -85,6 +103,28 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/shorty_entries.xlsx
+++ b/shorty_entries.xlsx
@@ -12,36 +12,75 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
-    <t>www.youtube.com</t>
+    <t>www.google.com</t>
   </si>
   <si>
-    <t>co8uvt6l</t>
+    <t>khk9gs3t</t>
   </si>
   <si>
     <t>www.facebook.com</t>
   </si>
   <si>
-    <t>xkq8vjqv</t>
-  </si>
-  <si>
-    <t>xy2id582</t>
+    <t>n1c2cvoh</t>
   </si>
   <si>
     <t>www.riteh.hr</t>
   </si>
   <si>
-    <t>fbklaopz</t>
+    <t>ec1lybi8</t>
   </si>
   <si>
-    <t>0v2ffdc7</t>
+    <t>7f8ps11s</t>
   </si>
   <si>
-    <t>www.kkso.com</t>
+    <t>www.youtube.com</t>
   </si>
   <si>
-    <t>ayz51beq</t>
+    <t>a9dgoy08</t>
+  </si>
+  <si>
+    <t>www.links.hr</t>
+  </si>
+  <si>
+    <t>ptfif9wn</t>
+  </si>
+  <si>
+    <t>zep7anp7</t>
+  </si>
+  <si>
+    <t>2d2qh4pn</t>
+  </si>
+  <si>
+    <t>xinblroi</t>
+  </si>
+  <si>
+    <t>75ewbs47</t>
+  </si>
+  <si>
+    <t>n3098j0g</t>
+  </si>
+  <si>
+    <t>37w8pj6m</t>
+  </si>
+  <si>
+    <t>5tkkcopb</t>
+  </si>
+  <si>
+    <t>v6zhob9m</t>
+  </si>
+  <si>
+    <t>www.hjdsahldkjhsajlkdhljsakdhsajkldhjsadhjsahdjkalshdjklhsakjldas.com</t>
+  </si>
+  <si>
+    <t>1hmy6atg</t>
+  </si>
+  <si>
+    <t>www.hdsjkad.com</t>
+  </si>
+  <si>
+    <t>jco2hmrs</t>
   </si>
 </sst>
 </file>
@@ -97,10 +136,10 @@
         <v>0.0</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -111,7 +150,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -119,10 +158,10 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/shorty_entries.xlsx
+++ b/shorty_entries.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>www.google.com</t>
   </si>
@@ -74,6 +74,24 @@
   </si>
   <si>
     <t>5cm6f1jf</t>
+  </si>
+  <si>
+    <t>6o0xbnyd</t>
+  </si>
+  <si>
+    <t>fznrirpj</t>
+  </si>
+  <si>
+    <t>www.kiko.com</t>
+  </si>
+  <si>
+    <t>nkzi7bhk</t>
+  </si>
+  <si>
+    <t>iygyow7z</t>
+  </si>
+  <si>
+    <t>unvk4d1q</t>
   </si>
 </sst>
 </file>
@@ -426,7 +444,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,15 +453,15 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="255.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="0">
-        <v>0</v>
+    <row r="1">
+      <c r="A1" t="n" s="0">
+        <v>0.0</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2">
@@ -451,21 +469,10 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/shorty_entries.xlsx
+++ b/shorty_entries.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>www.google.com</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>unvk4d1q</t>
+  </si>
+  <si>
+    <t>iaup71ou</t>
   </si>
 </sst>
 </file>

--- a/shorty_entries.xlsx
+++ b/shorty_entries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krusv\IdeaProjects\shorty-asee-internship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F6B175-9F91-4BB0-86DE-3B06D894D389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BC58A7-7F72-49FA-AA51-DB2AFEB9A3BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
-  <si>
-    <t>www.google.com</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>www.riteh.hr</t>
   </si>
@@ -31,70 +28,22 @@
     <t>www.youtube.com</t>
   </si>
   <si>
-    <t>37w8pj6m</t>
-  </si>
-  <si>
-    <t>v6zhob9m</t>
-  </si>
-  <si>
-    <t>bw6hlpf4</t>
-  </si>
-  <si>
-    <t>https://www.google.com/url?sa=i&amp;url=https%3A%2F%2Fwww.dovido.hr%2FSlike-prirode-i-krajolika%2FSlika-carobno-staklo-usred-planina&amp;psig=AOvVaw2sYqDirwZBXeSzGiu4wXBn&amp;ust=1685130887944000&amp;source=images&amp;cd=vfe&amp;ved=0CBEQjRxqFwoTCPjx5vCfkf8CFQAAAAAdAAAAABAE</t>
-  </si>
-  <si>
-    <t>fxt5ucea</t>
-  </si>
-  <si>
-    <t>mj4uik9f</t>
-  </si>
-  <si>
-    <t>www.links.hr</t>
-  </si>
-  <si>
-    <t>u092hubf</t>
-  </si>
-  <si>
-    <t>aqfz6yhk</t>
-  </si>
-  <si>
     <t>www.facebook.com</t>
   </si>
   <si>
     <t>npblgmap</t>
   </si>
   <si>
-    <t>www-links-hr</t>
-  </si>
-  <si>
-    <t>qxznojp0</t>
-  </si>
-  <si>
-    <t>3dec7m2s</t>
-  </si>
-  <si>
-    <t>5cm6f1jf</t>
-  </si>
-  <si>
-    <t>6o0xbnyd</t>
-  </si>
-  <si>
-    <t>fznrirpj</t>
-  </si>
-  <si>
-    <t>www.kiko.com</t>
-  </si>
-  <si>
-    <t>nkzi7bhk</t>
-  </si>
-  <si>
-    <t>iygyow7z</t>
-  </si>
-  <si>
     <t>unvk4d1q</t>
   </si>
   <si>
-    <t>iaup71ou</t>
+    <t>nk2dari7</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps</t>
+  </si>
+  <si>
+    <t>lykknxr3</t>
   </si>
 </sst>
 </file>
@@ -447,35 +396,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" bestFit="true" customWidth="true" width="255.7109375"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="n" s="0">
-        <v>0.0</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="0">
+        <v>0</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n" s="0">
-        <v>1.0</v>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="0">
+        <v>1</v>
       </c>
       <c r="B2" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="0">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C2" t="s" s="0">
-        <v>23</v>
+      <c r="C3" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/shorty_entries.xlsx
+++ b/shorty_entries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krusv\IdeaProjects\shorty-asee-internship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BC58A7-7F72-49FA-AA51-DB2AFEB9A3BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5468B378-4CAA-42AC-9A73-B674777C548B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9600" yWindow="5565" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,37 +20,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>www.riteh.hr</t>
+    <t>https://www.baeldung.com/properties-with-spring</t>
   </si>
   <si>
-    <t>www.youtube.com</t>
+    <t>dnc29h4a</t>
   </si>
   <si>
-    <t>www.facebook.com</t>
+    <t>www.google.com</t>
   </si>
   <si>
-    <t>npblgmap</t>
-  </si>
-  <si>
-    <t>unvk4d1q</t>
-  </si>
-  <si>
-    <t>nk2dari7</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps</t>
-  </si>
-  <si>
-    <t>lykknxr3</t>
+    <t>7nm7eid9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -396,59 +383,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="255.7109375"/>
+    <col min="2" max="2" width="25.5703125" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="0">
+      <c r="A1">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>3</v>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="0">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="0">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>7</v>
+      <c r="C2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/shorty_entries.xlsx
+++ b/shorty_entries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krusv\IdeaProjects\shorty-asee-internship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5468B378-4CAA-42AC-9A73-B674777C548B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222677EA-E335-4A13-9CF7-3128BC6B65B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="5565" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7395" yWindow="4830" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>https://www.baeldung.com/properties-with-spring</t>
   </si>
@@ -28,16 +28,53 @@
     <t>dnc29h4a</t>
   </si>
   <si>
-    <t>www.google.com</t>
-  </si>
-  <si>
-    <t>7nm7eid9</t>
+    <t>https://www.google.hr/</t>
+  </si>
+  <si>
+    <t>ivi1f9lt</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/</t>
+  </si>
+  <si>
+    <t>5miekt1t</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/</t>
+  </si>
+  <si>
+    <t>6d2340n9</t>
+  </si>
+  <si>
+    <t>dfa</t>
+  </si>
+  <si>
+    <t>52g95f52</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>itgypal4</t>
+  </si>
+  <si>
+    <t>https://www.speedtest.net/</t>
+  </si>
+  <si>
+    <t>vjpvqnvl</t>
+  </si>
+  <si>
+    <t>dfmksa</t>
+  </si>
+  <si>
+    <t>mk2yr8pl</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -383,38 +420,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.5703125" customWidth="1"/>
-    <col min="3" max="3" width="38.5703125" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="25.5703125"/>
+    <col min="3" max="3" customWidth="true" width="38.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1">
+      <c r="A1" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="0">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="0">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="0">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
